--- a/data/trans_orig/IP43-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP43-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6632605-B446-4F8D-B1B9-E0E1F0468581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29903A60-F2E3-4AD9-BAED-2BE4D17FCCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DA8DC6E5-E84D-4170-BD37-8B3812E44FA4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A275104-6107-4BDC-AE9F-36910472BAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -115,55 +115,49 @@
     <t>16,53%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>22,99%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>31,05%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>83,47%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>77,01%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
+    <t>68,95%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -181,55 +175,55 @@
     <t>25,54%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
   </si>
   <si>
     <t>24,69%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
   </si>
   <si>
     <t>74,46%</t>
   </si>
   <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
   </si>
   <si>
     <t>75,31%</t>
   </si>
   <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -247,124 +241,124 @@
     <t>20,56%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>15,46%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
   </si>
   <si>
     <t>25,92%</t>
   </si>
   <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
   </si>
   <si>
     <t>74,08%</t>
   </si>
   <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>79,02%</t>
   </si>
   <si>
     <t>77,19%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>76,9%</t>
   </si>
   <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -379,49 +373,55 @@
     <t>10,89%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>19,02%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>10,05%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>80,98%</t>
   </si>
   <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>85,34%</t>
   </si>
   <si>
-    <t>89,95%</t>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -430,55 +430,55 @@
     <t>12,23%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>12,71%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
   </si>
   <si>
     <t>87,29%</t>
   </si>
   <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
   </si>
   <si>
     <t>87,54%</t>
   </si>
   <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -493,73 +493,73 @@
     <t>9,66%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
   </si>
   <si>
     <t>8,98%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>90,34%</t>
   </si>
   <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>91,02%</t>
   </si>
   <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>11,88%</t>
@@ -568,31 +568,31 @@
     <t>10,56%</t>
   </si>
   <si>
-    <t>13,27%</t>
+    <t>13,31%</t>
   </si>
   <si>
     <t>88,54%</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>87,67%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>88,12%</t>
   </si>
   <si>
-    <t>86,73%</t>
+    <t>86,69%</t>
   </si>
   <si>
     <t>89,44%</t>
@@ -1073,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83891136-E5D3-4DBE-B831-A46BD8FE228E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E82B7A-8E27-442B-975F-F65BF5B6B537}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1464,10 +1464,10 @@
         <v>27</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M9" s="7">
         <v>53</v>
@@ -1476,13 +1476,13 @@
         <v>34860</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,13 +1497,13 @@
         <v>70265</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -1512,13 +1512,13 @@
         <v>70170</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M10" s="7">
         <v>197</v>
@@ -1527,13 +1527,13 @@
         <v>140435</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1589,7 +1589,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1607,37 +1607,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,13 +1652,13 @@
         <v>125494</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>159</v>
@@ -1667,13 +1667,13 @@
         <v>106523</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M13" s="7">
         <v>344</v>
@@ -1682,13 +1682,13 @@
         <v>232018</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,13 +1703,13 @@
         <v>365832</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H14" s="7">
         <v>491</v>
@@ -1718,13 +1718,13 @@
         <v>341983</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>1009</v>
@@ -1733,13 +1733,13 @@
         <v>707814</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1795,7 +1795,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1813,37 +1813,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,13 +1858,13 @@
         <v>34960</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -1873,13 +1873,13 @@
         <v>33464</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -1888,13 +1888,13 @@
         <v>68424</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,13 +1909,13 @@
         <v>135097</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H18" s="7">
         <v>187</v>
@@ -1924,13 +1924,13 @@
         <v>132506</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M18" s="7">
         <v>378</v>
@@ -1939,13 +1939,13 @@
         <v>267603</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,37 +2019,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,13 +2064,13 @@
         <v>174370</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H21" s="7">
         <v>239</v>
@@ -2079,13 +2079,13 @@
         <v>160932</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M21" s="7">
         <v>495</v>
@@ -2094,13 +2094,13 @@
         <v>335301</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,13 +2115,13 @@
         <v>571834</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>778</v>
@@ -2130,13 +2130,13 @@
         <v>544658</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>1585</v>
@@ -2145,13 +2145,13 @@
         <v>1116493</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,7 +2207,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +2227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CECB2C-DFCB-42D2-A021-D87E81AC0C1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAAAA61-C989-4DEC-B93E-C939B86D2BA4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2244,7 +2244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2539,37 +2539,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2584,13 @@
         <v>7470</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H9" s="7">
         <v>18</v>
@@ -2599,13 +2599,13 @@
         <v>11296</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -2614,13 +2614,13 @@
         <v>18766</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2635,13 @@
         <v>61144</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -2650,13 +2650,13 @@
         <v>48082</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M10" s="7">
         <v>159</v>
@@ -2665,10 +2665,10 @@
         <v>109227</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>127</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2760,22 +2760,22 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2933,7 +2933,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3157,37 +3157,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,7 +3345,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3365,7 +3365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9131303F-B654-47CC-8878-97008288ADC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E858BA7A-6326-4909-B8C6-D27DB596DEBD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3881,7 +3881,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3950,7 +3950,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4001,7 +4001,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP43-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP43-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29903A60-F2E3-4AD9-BAED-2BE4D17FCCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2BC1FEC-A986-42AB-AB55-A153DAC7B017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A275104-6107-4BDC-AE9F-36910472BAE3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4BB552FA-D04F-4CCD-AD9E-795EF1B9653C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="206">
   <si>
     <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2012 (Tasa respuesta: 99,09%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>994.0</t>
@@ -79,552 +79,546 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2023 (Tasa respuesta: 100,0%)</t>
+    <t>97,26%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
     <t>98,75%</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>1,25%</t>
   </si>
   <si>
+    <t>99,7%</t>
+  </si>
+  <si>
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,7%</t>
-  </si>
-  <si>
     <t>99,85%</t>
   </si>
   <si>
@@ -634,19 +628,19 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>99,17%</t>
+  </si>
+  <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
     <t>99,59%</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
   </si>
   <si>
     <t>0,41%</t>
@@ -1073,8 +1067,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E82B7A-8E27-442B-975F-F65BF5B6B537}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5933230F-D229-4C6A-8759-813F0FB010A1}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1208,12 +1202,14 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -1231,105 +1227,109 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>20945</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="I5" s="7">
+        <v>13915</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>34860</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>70170</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="I6" s="7">
+        <v>70265</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>140435</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1338,52 +1338,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D7" s="7">
-        <v>641</v>
+        <v>91115</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="I7" s="7">
+        <v>84180</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N7" s="7">
-        <v>641</v>
+        <v>175295</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1401,7 +1403,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1416,7 +1418,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1431,109 +1433,109 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="D9" s="7">
-        <v>13915</v>
+        <v>106523</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="I9" s="7">
-        <v>20945</v>
+        <v>125494</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>53</v>
+        <v>344</v>
       </c>
       <c r="N9" s="7">
-        <v>34860</v>
+        <v>232018</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>97</v>
+        <v>491</v>
       </c>
       <c r="D10" s="7">
-        <v>70265</v>
+        <v>341983</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>100</v>
+        <v>518</v>
       </c>
       <c r="I10" s="7">
-        <v>70170</v>
+        <v>365832</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>197</v>
+        <v>1009</v>
       </c>
       <c r="N10" s="7">
-        <v>140435</v>
+        <v>707814</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,54 +1544,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>118</v>
+        <v>650</v>
       </c>
       <c r="D11" s="7">
-        <v>84180</v>
+        <v>448506</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>132</v>
+        <v>703</v>
       </c>
       <c r="I11" s="7">
-        <v>91115</v>
+        <v>491326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>250</v>
+        <v>1353</v>
       </c>
       <c r="N11" s="7">
-        <v>175295</v>
+        <v>939832</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1607,7 +1609,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1637,109 +1639,109 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>125494</v>
+        <v>33464</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="I13" s="7">
-        <v>106523</v>
+        <v>34960</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="N13" s="7">
-        <v>232018</v>
+        <v>68424</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>518</v>
+        <v>187</v>
       </c>
       <c r="D14" s="7">
-        <v>365832</v>
+        <v>132506</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>491</v>
+        <v>191</v>
       </c>
       <c r="I14" s="7">
-        <v>341983</v>
+        <v>135097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>1009</v>
+        <v>378</v>
       </c>
       <c r="N14" s="7">
-        <v>707814</v>
+        <v>267603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,54 +1750,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>703</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>491326</v>
+        <v>165970</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>650</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>448506</v>
+        <v>170057</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1353</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>939832</v>
+        <v>336027</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1813,7 +1815,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1843,109 +1845,109 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="D17" s="7">
-        <v>34960</v>
+        <v>160932</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="I17" s="7">
-        <v>33464</v>
+        <v>174370</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>98</v>
+        <v>495</v>
       </c>
       <c r="N17" s="7">
-        <v>68424</v>
+        <v>335301</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>191</v>
+        <v>778</v>
       </c>
       <c r="D18" s="7">
-        <v>135097</v>
+        <v>544658</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
-        <v>187</v>
+        <v>806</v>
       </c>
       <c r="I18" s="7">
-        <v>132506</v>
+        <v>571193</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>378</v>
+        <v>1584</v>
       </c>
       <c r="N18" s="7">
-        <v>267603</v>
+        <v>1115852</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,267 +1956,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>241</v>
+        <v>1017</v>
       </c>
       <c r="D19" s="7">
-        <v>170057</v>
+        <v>705590</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>235</v>
+        <v>1062</v>
       </c>
       <c r="I19" s="7">
-        <v>165970</v>
+        <v>745563</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>476</v>
+        <v>2079</v>
       </c>
       <c r="N19" s="7">
-        <v>336027</v>
+        <v>1451153</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>256</v>
-      </c>
-      <c r="D21" s="7">
-        <v>174370</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="7">
-        <v>239</v>
-      </c>
-      <c r="I21" s="7">
-        <v>160932</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M21" s="7">
-        <v>495</v>
-      </c>
-      <c r="N21" s="7">
-        <v>335301</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7">
-        <v>807</v>
-      </c>
-      <c r="D22" s="7">
-        <v>571834</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="7">
-        <v>778</v>
-      </c>
-      <c r="I22" s="7">
-        <v>544658</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1585</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1116493</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="A20" t="s">
         <v>102</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D23" s="7">
-        <v>746204</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I23" s="7">
-        <v>705590</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2080</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1451794</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2227,8 +2022,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAAAA61-C989-4DEC-B93E-C939B86D2BA4}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64587E7B-8CC5-416C-AF0E-ADD020A991F3}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2244,7 +2039,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2347,131 +2142,149 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11296</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>7470</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="N5" s="7">
+        <v>18766</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="D6" s="7">
+        <v>48082</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="I6" s="7">
+        <v>61144</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="N6" s="7">
+        <v>109227</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,48 +2293,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D7" s="7">
+        <v>59378</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I7" s="7">
+        <v>68614</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N7" s="7">
+        <v>127993</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2539,7 +2358,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2554,7 +2373,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2569,109 +2388,109 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D9" s="7">
-        <v>7470</v>
+        <v>60021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="H9" s="7">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I9" s="7">
-        <v>11296</v>
+        <v>59754</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="M9" s="7">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="N9" s="7">
-        <v>18766</v>
+        <v>119775</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>88</v>
+        <v>617</v>
       </c>
       <c r="D10" s="7">
-        <v>61144</v>
+        <v>412269</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="H10" s="7">
-        <v>71</v>
+        <v>609</v>
       </c>
       <c r="I10" s="7">
-        <v>48082</v>
+        <v>428981</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
-        <v>159</v>
+        <v>1226</v>
       </c>
       <c r="N10" s="7">
-        <v>109227</v>
+        <v>841250</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,54 +2499,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D11" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I11" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N11" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2745,7 +2564,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2760,7 +2579,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2775,109 +2594,109 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>59754</v>
+        <v>15502</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>60021</v>
+        <v>18109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
-        <v>183</v>
+        <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>119775</v>
+        <v>33611</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>609</v>
+        <v>234</v>
       </c>
       <c r="D14" s="7">
-        <v>428981</v>
+        <v>157201</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
-        <v>617</v>
+        <v>244</v>
       </c>
       <c r="I14" s="7">
-        <v>412269</v>
+        <v>169386</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
-        <v>1226</v>
+        <v>478</v>
       </c>
       <c r="N14" s="7">
-        <v>841250</v>
+        <v>326586</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,54 +2705,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D15" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I15" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N15" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2951,7 +2770,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2966,7 +2785,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2981,109 +2800,109 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="D17" s="7">
-        <v>18109</v>
+        <v>86819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H17" s="7">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="I17" s="7">
-        <v>15502</v>
+        <v>85333</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="N17" s="7">
-        <v>33611</v>
+        <v>172152</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>244</v>
+        <v>922</v>
       </c>
       <c r="D18" s="7">
-        <v>169386</v>
+        <v>617552</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="H18" s="7">
-        <v>234</v>
+        <v>941</v>
       </c>
       <c r="I18" s="7">
-        <v>157201</v>
+        <v>659511</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M18" s="7">
-        <v>478</v>
+        <v>1863</v>
       </c>
       <c r="N18" s="7">
-        <v>326586</v>
+        <v>1277063</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,267 +2911,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D19" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I19" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N19" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>124</v>
-      </c>
-      <c r="D21" s="7">
-        <v>85333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="7">
-        <v>139</v>
-      </c>
-      <c r="I21" s="7">
-        <v>86819</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M21" s="7">
-        <v>263</v>
-      </c>
-      <c r="N21" s="7">
-        <v>172152</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7">
-        <v>941</v>
-      </c>
-      <c r="D22" s="7">
-        <v>659511</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="7">
-        <v>922</v>
-      </c>
-      <c r="I22" s="7">
-        <v>617552</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1863</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1277063</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D23" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I23" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>105</v>
+      <c r="A20" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3365,8 +2977,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E858BA7A-6326-4909-B8C6-D27DB596DEBD}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB98E1C4-334C-4761-90BB-89B238DD6479}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3382,7 +2994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3483,66 +3095,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D4" s="7">
+        <v>54678</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3557,7 +3173,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3572,26 +3188,28 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3606,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3621,7 +3239,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,106 +3248,108 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D7" s="7">
+        <v>54678</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I7" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="D8" s="7">
-        <v>58757</v>
+        <v>460510</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I8" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
-        <v>152</v>
+        <v>1299</v>
       </c>
       <c r="N8" s="7">
-        <v>109959</v>
+        <v>977129</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -3744,7 +3364,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3759,7 +3379,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3774,13 +3394,13 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -3795,7 +3415,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3810,7 +3430,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3825,7 +3445,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,108 +3454,108 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="D11" s="7">
-        <v>58757</v>
+        <v>460510</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I11" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>152</v>
+        <v>1299</v>
       </c>
       <c r="N11" s="7">
-        <v>109959</v>
+        <v>977129</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
-        <v>643</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>449968</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M12" s="7">
-        <v>1299</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>942333</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -3950,7 +3570,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3965,7 +3585,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3980,13 +3600,13 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4001,7 +3621,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4016,7 +3636,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4031,7 +3651,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,108 +3660,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D15" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>643</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>449968</v>
+        <v>183349</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1299</v>
+        <v>468</v>
       </c>
       <c r="N15" s="7">
-        <v>942333</v>
+        <v>332900</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D16" s="7">
-        <v>174583</v>
+        <v>664738</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I16" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
-        <v>468</v>
+        <v>1919</v>
       </c>
       <c r="N16" s="7">
-        <v>325952</v>
+        <v>1426710</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4156,7 +3776,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4171,7 +3791,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4186,13 +3806,13 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -4207,7 +3827,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4222,7 +3842,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4237,7 +3857,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,267 +3866,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D19" s="7">
-        <v>174583</v>
+        <v>664738</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I19" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>468</v>
+        <v>1919</v>
       </c>
       <c r="N19" s="7">
-        <v>325952</v>
+        <v>1426710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>977</v>
-      </c>
-      <c r="D20" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>943</v>
-      </c>
-      <c r="I20" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>977</v>
-      </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
-        <v>943</v>
-      </c>
-      <c r="I23" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>105</v>
+      <c r="A20" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
